--- a/DB_CollegeManage/a.xlsx
+++ b/DB_CollegeManage/a.xlsx
@@ -234,7 +234,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -264,19 +266,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106706</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="640236" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.98828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.8671875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.65625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.1875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="15.52734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.33203125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="7.0859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.24609375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="26.6015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="16.109375" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -329,7 +405,7 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="n" s="1">
         <v>33139.0</v>
       </c>
       <c r="E2" t="s">
@@ -341,7 +417,7 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="n" s="2">
         <v>41540.0</v>
       </c>
       <c r="J2" t="s">
@@ -352,6 +428,9 @@
       </c>
       <c r="L2" t="s">
         <v>22</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -364,7 +443,7 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="n" s="3">
         <v>33143.0</v>
       </c>
       <c r="E3" t="s">
@@ -376,7 +455,7 @@
       <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="n" s="4">
         <v>41752.0</v>
       </c>
       <c r="J3" t="s">
@@ -386,6 +465,9 @@
       <c r="L3" t="s">
         <v>29</v>
       </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -397,7 +479,7 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="n" s="5">
         <v>33832.0</v>
       </c>
       <c r="E4" t="s">
@@ -409,7 +491,7 @@
       <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="n" s="6">
         <v>41752.0</v>
       </c>
       <c r="J4" t="s">
@@ -419,6 +501,9 @@
       <c r="L4" t="s">
         <v>35</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -430,7 +515,7 @@
       <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="n" s="7">
         <v>33070.0</v>
       </c>
       <c r="E5" t="s">
@@ -442,7 +527,7 @@
       <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" t="n" s="8">
         <v>42200.0</v>
       </c>
       <c r="J5" t="s">
@@ -452,6 +537,9 @@
       <c r="L5" t="s">
         <v>42</v>
       </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -463,8 +551,8 @@
       <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="n">
-        <v>-1.0</v>
+      <c r="D6" t="n" s="9">
+        <v>36017.0</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -475,7 +563,7 @@
       <c r="G6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" t="n" s="10">
         <v>41050.0</v>
       </c>
       <c r="J6" t="s">
@@ -485,6 +573,9 @@
       <c r="L6" t="s">
         <v>49</v>
       </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -496,7 +587,7 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="n" s="11">
         <v>32893.0</v>
       </c>
       <c r="E7" t="s">
@@ -508,7 +599,7 @@
       <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" s="12"/>
       <c r="J7" t="s">
         <v>45</v>
       </c>
@@ -516,6 +607,9 @@
       <c r="L7" t="s">
         <v>56</v>
       </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -527,7 +621,7 @@
       <c r="C8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="n" s="13">
         <v>32924.0</v>
       </c>
       <c r="E8" t="s">
@@ -539,7 +633,7 @@
       <c r="G8" t="s">
         <v>62</v>
       </c>
-      <c r="I8"/>
+      <c r="I8" s="14"/>
       <c r="J8" t="s">
         <v>63</v>
       </c>
@@ -547,6 +641,9 @@
       <c r="L8" t="s">
         <v>64</v>
       </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -558,8 +655,8 @@
       <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" t="n">
-        <v>-1.0</v>
+      <c r="D9" t="n" s="15">
+        <v>36354.0</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
@@ -570,7 +667,7 @@
       <c r="G9" t="s">
         <v>70</v>
       </c>
-      <c r="I9"/>
+      <c r="I9" s="16"/>
       <c r="J9" t="s">
         <v>20</v>
       </c>
@@ -578,8 +675,12 @@
       <c r="L9" t="s">
         <v>71</v>
       </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>